--- a/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/Paises3166.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/Paises3166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887B285E-F695-2843-AAEF-98392D4BA06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF646AE-B6A4-F24F-A933-2E97004659CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7F015167-1749-8F45-A247-C3195461C0E7}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
-  <si>
-    <t>Afghanistan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="502">
   <si>
     <t>AF</t>
   </si>
@@ -47,2230 +44,1486 @@
     <t>AFG</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
     <t>DZ</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
     <t>ASM</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>AD</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>AO</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
     <t>AIA</t>
   </si>
   <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
     <t>AQ</t>
   </si>
   <si>
     <t>ATA</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
     <t>AG</t>
   </si>
   <si>
     <t>ATG</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
     <t>AW</t>
   </si>
   <si>
     <t>ABW</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>AU</t>
   </si>
   <si>
     <t>AUS</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
     <t>AZE</t>
   </si>
   <si>
-    <t>Bahamas (the)</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
     <t>BHS</t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
     <t>BH</t>
   </si>
   <si>
     <t>BHR</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
     <t>BGD</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
     <t>BRB</t>
   </si>
   <si>
-    <t>Belarus</t>
-  </si>
-  <si>
     <t>BY</t>
   </si>
   <si>
     <t>BLR</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
     <t>BEL</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>BZ</t>
   </si>
   <si>
     <t>BLZ</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
     <t>BJ</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
     <t>BMU</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
     <t>BTN</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
     <t>BOL</t>
   </si>
   <si>
-    <t>Bonaire, Sint Eustatius and Saba</t>
-  </si>
-  <si>
     <t>BQ</t>
   </si>
   <si>
     <t>BES</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
     <t>BIH</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
     <t>BW</t>
   </si>
   <si>
     <t>BWA</t>
   </si>
   <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
     <t>BV</t>
   </si>
   <si>
     <t>BVT</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
-    <t>British Indian Ocean Territory (the)</t>
-  </si>
-  <si>
     <t>IO</t>
   </si>
   <si>
     <t>IOT</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>BN</t>
   </si>
   <si>
     <t>BRN</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
     <t>BG</t>
   </si>
   <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
     <t>BF</t>
   </si>
   <si>
     <t>BFA</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>BI</t>
   </si>
   <si>
     <t>BDI</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
     <t>CV</t>
   </si>
   <si>
     <t>CPV</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>KH</t>
   </si>
   <si>
     <t>KHM</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>CM</t>
   </si>
   <si>
     <t>CMR</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
-    <t>Cayman Islands (the)</t>
-  </si>
-  <si>
     <t>KY</t>
   </si>
   <si>
     <t>CYM</t>
   </si>
   <si>
-    <t>Central African Republic (the)</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
     <t>TD</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
     <t>CX</t>
   </si>
   <si>
     <t>CXR</t>
   </si>
   <si>
-    <t>Cocos (Keeling) Islands (the)</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>CCK</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
     <t>COL</t>
   </si>
   <si>
-    <t>Comoros (the)</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Congo (the Democratic Republic of the)</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>Congo (the)</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Cook Islands (the)</t>
-  </si>
-  <si>
     <t>CK</t>
   </si>
   <si>
     <t>COK</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
     <t>CRI</t>
   </si>
   <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
     <t>HRV</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
     <t>CUB</t>
   </si>
   <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
     <t>CW</t>
   </si>
   <si>
     <t>CUW</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
     <t>CYP</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>CZ</t>
   </si>
   <si>
     <t>CZE</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
     <t>CIV</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>DK</t>
   </si>
   <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>DJ</t>
   </si>
   <si>
     <t>DJI</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>DM</t>
   </si>
   <si>
     <t>DMA</t>
   </si>
   <si>
-    <t>Dominican Republic (the)</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
     <t>DOM</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
     <t>EC</t>
   </si>
   <si>
     <t>ECU</t>
   </si>
   <si>
-    <t>Egypt</t>
-  </si>
-  <si>
     <t>EG</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
     <t>SV</t>
   </si>
   <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>GQ</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
     <t>ERI</t>
   </si>
   <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
     <t>EST</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>SZ</t>
   </si>
   <si>
     <t>SWZ</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Falkland Islands (the) [Malvinas]</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
     <t>FLK</t>
   </si>
   <si>
-    <t>Faroe Islands (the)</t>
-  </si>
-  <si>
     <t>FO</t>
   </si>
   <si>
     <t>FRO</t>
   </si>
   <si>
-    <t>Fiji</t>
-  </si>
-  <si>
     <t>FJ</t>
   </si>
   <si>
     <t>FJI</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>FI</t>
   </si>
   <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
     <t>FRA</t>
   </si>
   <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
     <t>GF</t>
   </si>
   <si>
     <t>GUF</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>PYF</t>
   </si>
   <si>
-    <t>French Southern Territories (the)</t>
-  </si>
-  <si>
     <t>TF</t>
   </si>
   <si>
     <t>ATF</t>
   </si>
   <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>GA</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gambia (the)</t>
-  </si>
-  <si>
     <t>GM</t>
   </si>
   <si>
     <t>GMB</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
     <t>GEO</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>DE</t>
   </si>
   <si>
     <t>DEU</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>GH</t>
   </si>
   <si>
     <t>GHA</t>
   </si>
   <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>GI</t>
   </si>
   <si>
     <t>GIB</t>
   </si>
   <si>
-    <t>Greece</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
     <t>GRC</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>GL</t>
   </si>
   <si>
     <t>GRL</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>GD</t>
   </si>
   <si>
     <t>GRD</t>
   </si>
   <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>GP</t>
   </si>
   <si>
     <t>GLP</t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
     <t>GU</t>
   </si>
   <si>
     <t>GUM</t>
   </si>
   <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
     <t>GT</t>
   </si>
   <si>
     <t>GTM</t>
   </si>
   <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
     <t>GG</t>
   </si>
   <si>
     <t>GGY</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>GN</t>
   </si>
   <si>
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>GY</t>
   </si>
   <si>
     <t>GUY</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
     <t>HT</t>
   </si>
   <si>
     <t>HTI</t>
   </si>
   <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
     <t>HM</t>
   </si>
   <si>
     <t>HMD</t>
   </si>
   <si>
-    <t>Holy See (the)</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
     <t>VAT</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>HN</t>
   </si>
   <si>
     <t>HND</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
     <t>HUN</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>IS</t>
   </si>
   <si>
     <t>ISL</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
     <t>IND</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
     <t>IRN</t>
   </si>
   <si>
-    <t>Iraq</t>
-  </si>
-  <si>
     <t>IQ</t>
   </si>
   <si>
     <t>IRQ</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>IE</t>
   </si>
   <si>
     <t>IRL</t>
   </si>
   <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
     <t>IM</t>
   </si>
   <si>
     <t>IMN</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
     <t>ISR</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
     <t>ITA</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>JM</t>
   </si>
   <si>
     <t>JAM</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>JP</t>
   </si>
   <si>
     <t>JPN</t>
   </si>
   <si>
-    <t>Jersey</t>
-  </si>
-  <si>
     <t>JE</t>
   </si>
   <si>
     <t>JEY</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
     <t>JO</t>
   </si>
   <si>
     <t>JOR</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>KZ</t>
   </si>
   <si>
     <t>KAZ</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
     <t>KE</t>
   </si>
   <si>
     <t>KEN</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>KI</t>
   </si>
   <si>
     <t>KIR</t>
   </si>
   <si>
-    <t>Korea (the Democratic People's Republic of)</t>
-  </si>
-  <si>
     <t>KP</t>
   </si>
   <si>
     <t>PRK</t>
   </si>
   <si>
-    <t>Korea (the Republic of)</t>
-  </si>
-  <si>
     <t>KR</t>
   </si>
   <si>
     <t>KOR</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>KW</t>
   </si>
   <si>
     <t>KWT</t>
   </si>
   <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>KG</t>
   </si>
   <si>
     <t>KGZ</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic (the)</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
     <t>LAO</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>LV</t>
   </si>
   <si>
     <t>LVA</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
     <t>LBN</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>LS</t>
   </si>
   <si>
     <t>LSO</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
     <t>LBR</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
     <t>LY</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>LI</t>
   </si>
   <si>
     <t>LIE</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
     <t>LTU</t>
   </si>
   <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>LU</t>
   </si>
   <si>
     <t>LUX</t>
   </si>
   <si>
-    <t>Macao</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
     <t>MAC</t>
   </si>
   <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
     <t>MDG</t>
   </si>
   <si>
-    <t>Malawi</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
     <t>MWI</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>MY</t>
   </si>
   <si>
     <t>MYS</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
     <t>MV</t>
   </si>
   <si>
     <t>MDV</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
     <t>ML</t>
   </si>
   <si>
     <t>MLI</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
     <t>MLT</t>
   </si>
   <si>
-    <t>Marshall Islands (the)</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
     <t>MHL</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
     <t>MQ</t>
   </si>
   <si>
     <t>MTQ</t>
   </si>
   <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
     <t>MUS</t>
   </si>
   <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
     <t>YT</t>
   </si>
   <si>
     <t>MYT</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>MX</t>
   </si>
   <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
     <t>FM</t>
   </si>
   <si>
     <t>FSM</t>
   </si>
   <si>
-    <t>Moldova (the Republic of)</t>
-  </si>
-  <si>
     <t>MD</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>MC</t>
   </si>
   <si>
     <t>MCO</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>MN</t>
   </si>
   <si>
     <t>MNG</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
     <t>MNE</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MSR</t>
   </si>
   <si>
-    <t>Morocco</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
     <t>MZ</t>
   </si>
   <si>
     <t>MOZ</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
     <t>MMR</t>
   </si>
   <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>Nauru</t>
-  </si>
-  <si>
     <t>NR</t>
   </si>
   <si>
     <t>NRU</t>
   </si>
   <si>
-    <t>Nepal</t>
-  </si>
-  <si>
     <t>NP</t>
   </si>
   <si>
     <t>NPL</t>
   </si>
   <si>
-    <t>Netherlands (the)</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
     <t>NLD</t>
   </si>
   <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
     <t>NCL</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>NZ</t>
   </si>
   <si>
     <t>NZL</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
     <t>NI</t>
   </si>
   <si>
     <t>NIC</t>
   </si>
   <si>
-    <t>Niger (the)</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
     <t>NER</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
     <t>NGA</t>
   </si>
   <si>
-    <t>Niue</t>
-  </si>
-  <si>
     <t>NU</t>
   </si>
   <si>
     <t>NIU</t>
   </si>
   <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
     <t>NF</t>
   </si>
   <si>
     <t>NFK</t>
   </si>
   <si>
-    <t>Northern Mariana Islands (the)</t>
-  </si>
-  <si>
     <t>MP</t>
   </si>
   <si>
     <t>MNP</t>
   </si>
   <si>
-    <t>Norway</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Oman</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
     <t>OMN</t>
   </si>
   <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
     <t>PAK</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>PW</t>
   </si>
   <si>
     <t>PLW</t>
   </si>
   <si>
-    <t>Palestine, State of</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
     <t>PSE</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PNG</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
     <t>PY</t>
   </si>
   <si>
     <t>PRY</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
     <t>PER</t>
   </si>
   <si>
-    <t>Philippines (the)</t>
-  </si>
-  <si>
     <t>PH</t>
   </si>
   <si>
     <t>PHL</t>
   </si>
   <si>
-    <t>Pitcairn</t>
-  </si>
-  <si>
     <t>PN</t>
   </si>
   <si>
     <t>PCN</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
     <t>POL</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>PT</t>
   </si>
   <si>
     <t>PRT</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
     <t>PRI</t>
   </si>
   <si>
-    <t>Qatar</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
     <t>QAT</t>
   </si>
   <si>
-    <t>Republic of North Macedonia</t>
-  </si>
-  <si>
     <t>MK</t>
   </si>
   <si>
     <t>MKD</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
     <t>ROU</t>
   </si>
   <si>
-    <t>Russian Federation (the)</t>
-  </si>
-  <si>
     <t>RU</t>
   </si>
   <si>
     <t>RUS</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>RW</t>
   </si>
   <si>
     <t>RWA</t>
   </si>
   <si>
-    <t>Réunion</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
     <t>REU</t>
   </si>
   <si>
-    <t>Saint Barthélemy</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
     <t>BLM</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
-  </si>
-  <si>
     <t>SH</t>
   </si>
   <si>
     <t>SHN</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>KN</t>
   </si>
   <si>
     <t>KNA</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
     <t>LC</t>
   </si>
   <si>
     <t>LCA</t>
   </si>
   <si>
-    <t>Saint Martin (French part)</t>
-  </si>
-  <si>
     <t>MF</t>
   </si>
   <si>
     <t>MAF</t>
   </si>
   <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
     <t>SPM</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>VC</t>
   </si>
   <si>
     <t>VCT</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>WS</t>
   </si>
   <si>
     <t>WSM</t>
   </si>
   <si>
-    <t>San Marino</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
     <t>SMR</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>SA</t>
   </si>
   <si>
     <t>SAU</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>SN</t>
   </si>
   <si>
     <t>SEN</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
     <t>SRB</t>
   </si>
   <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
     <t>SYC</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
     <t>SLE</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
     <t>SGP</t>
   </si>
   <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
     <t>SX</t>
   </si>
   <si>
     <t>SXM</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
     <t>SVK</t>
   </si>
   <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
     <t>SVN</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
     <t>SLB</t>
   </si>
   <si>
-    <t>Somalia</t>
-  </si>
-  <si>
     <t>SO</t>
   </si>
   <si>
     <t>SOM</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
     <t>ZA</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
     <t>SGS</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>LK</t>
   </si>
   <si>
     <t>LKA</t>
   </si>
   <si>
-    <t>Sudan (the)</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
     <t>SUR</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
     <t>SJ</t>
   </si>
   <si>
     <t>SJM</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
     <t>SWE</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
     <t>CHE</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>SY</t>
   </si>
   <si>
     <t>SYR</t>
   </si>
   <si>
-    <t>Taiwan (Province of China)</t>
-  </si>
-  <si>
     <t>TW</t>
   </si>
   <si>
     <t>TWN</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
     <t>TJ</t>
   </si>
   <si>
     <t>TJK</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>TZ</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>TH</t>
   </si>
   <si>
     <t>THA</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
     <t>TLS</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>TG</t>
   </si>
   <si>
     <t>TGO</t>
   </si>
   <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
     <t>TK</t>
   </si>
   <si>
     <t>TKL</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>TO</t>
   </si>
   <si>
     <t>TON</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
     <t>TTO</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
     <t>TM</t>
   </si>
   <si>
     <t>TKM</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands (the)</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
     <t>TCA</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>TV</t>
   </si>
   <si>
     <t>TUV</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>UG</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>UA</t>
   </si>
   <si>
     <t>UKR</t>
   </si>
   <si>
-    <t>United Arab Emirates (the)</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
     <t>ARE</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
     <t>GBR</t>
   </si>
   <si>
-    <t>United States Minor Outlying Islands (the)</t>
-  </si>
-  <si>
     <t>UM</t>
   </si>
   <si>
     <t>UMI</t>
   </si>
   <si>
-    <t>United States of America (the)</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
     <t>URY</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
     <t>UZ</t>
   </si>
   <si>
     <t>UZB</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>VU</t>
   </si>
   <si>
     <t>VUT</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>VE</t>
   </si>
   <si>
     <t>VEN</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
     <t>VNM</t>
   </si>
   <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
     <t>VG</t>
   </si>
   <si>
     <t>VGB</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
     <t>VIR</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
     <t>WF</t>
   </si>
   <si>
     <t>WLF</t>
   </si>
   <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
     <t>EH</t>
   </si>
   <si>
     <t>ESH</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
     <t>YE</t>
   </si>
   <si>
     <t>YEM</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>ZM</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
     <t>ZW</t>
   </si>
   <si>
     <t>ZWE</t>
-  </si>
-  <si>
-    <t>Åland Islands</t>
   </si>
   <si>
     <t>AX</t>
@@ -2643,34 +1896,34 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>747</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s">
-        <v>748</v>
+        <v>499</v>
       </c>
       <c r="C1" t="s">
-        <v>749</v>
+        <v>500</v>
       </c>
       <c r="D1" t="s">
-        <v>750</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2678,13 +1931,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2692,13 +1945,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -2706,13 +1959,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -2720,13 +1973,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -2734,13 +1987,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>24</v>
@@ -2748,13 +2001,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>660</v>
@@ -2762,13 +2015,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2776,13 +2029,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -2790,13 +2043,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>32</v>
@@ -2804,13 +2057,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>51</v>
@@ -2818,13 +2071,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>533</v>
@@ -2832,13 +2085,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>36</v>
@@ -2846,13 +2099,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -2860,13 +2113,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -2874,13 +2127,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>44</v>
@@ -2888,13 +2141,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>48</v>
@@ -2902,13 +2155,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -2916,13 +2169,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>52</v>
@@ -2930,13 +2183,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>112</v>
@@ -2944,13 +2197,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>56</v>
@@ -2958,13 +2211,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>84</v>
@@ -2972,13 +2225,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>204</v>
@@ -2986,13 +2239,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -3000,13 +2253,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>64</v>
@@ -3014,13 +2267,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>68</v>
@@ -3028,13 +2281,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>535</v>
@@ -3042,13 +2295,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>70</v>
@@ -3056,13 +2309,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>72</v>
@@ -3070,13 +2323,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>74</v>
@@ -3084,13 +2337,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>76</v>
@@ -3098,13 +2351,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>86</v>
@@ -3112,13 +2365,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>96</v>
@@ -3126,13 +2379,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D35">
         <v>100</v>
@@ -3140,13 +2393,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>854</v>
@@ -3154,13 +2407,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>108</v>
@@ -3168,13 +2421,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>132</v>
@@ -3182,13 +2435,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>116</v>
@@ -3196,13 +2449,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>120</v>
@@ -3210,13 +2463,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <v>124</v>
@@ -3224,13 +2477,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="D42">
         <v>136</v>
@@ -3238,13 +2491,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>140</v>
@@ -3252,13 +2505,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>148</v>
@@ -3266,13 +2519,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="D45">
         <v>152</v>
@@ -3280,13 +2533,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>156</v>
@@ -3294,13 +2547,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>162</v>
@@ -3308,13 +2561,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="D48">
         <v>166</v>
@@ -3322,13 +2575,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="D49">
         <v>170</v>
@@ -3336,13 +2589,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D50">
         <v>174</v>
@@ -3350,13 +2603,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D51">
         <v>180</v>
@@ -3364,13 +2617,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="D52">
         <v>178</v>
@@ -3378,13 +2631,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>184</v>
@@ -3392,13 +2645,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D54">
         <v>188</v>
@@ -3406,13 +2659,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <v>191</v>
@@ -3420,13 +2673,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>192</v>
@@ -3434,13 +2687,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>531</v>
@@ -3448,13 +2701,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="D58">
         <v>196</v>
@@ -3462,13 +2715,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D59">
         <v>203</v>
@@ -3476,13 +2729,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D60">
         <v>384</v>
@@ -3490,13 +2743,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D61">
         <v>208</v>
@@ -3504,13 +2757,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="D62">
         <v>262</v>
@@ -3518,13 +2771,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="D63">
         <v>212</v>
@@ -3532,13 +2785,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D64">
         <v>214</v>
@@ -3546,13 +2799,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D65">
         <v>218</v>
@@ -3560,13 +2813,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="D66">
         <v>818</v>
@@ -3574,13 +2827,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="D67">
         <v>222</v>
@@ -3588,13 +2841,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="D68">
         <v>226</v>
@@ -3602,13 +2855,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="D69">
         <v>232</v>
@@ -3616,13 +2869,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="D70">
         <v>233</v>
@@ -3630,13 +2883,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="D71">
         <v>748</v>
@@ -3644,13 +2897,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="D72">
         <v>231</v>
@@ -3658,13 +2911,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="D73">
         <v>238</v>
@@ -3672,13 +2925,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="D74">
         <v>234</v>
@@ -3686,13 +2939,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="D75">
         <v>242</v>
@@ -3700,13 +2953,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="D76">
         <v>246</v>
@@ -3714,13 +2967,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="D77">
         <v>250</v>
@@ -3728,13 +2981,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="D78">
         <v>254</v>
@@ -3742,13 +2995,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="D79">
         <v>258</v>
@@ -3756,13 +3009,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="D80">
         <v>260</v>
@@ -3770,13 +3023,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D81">
         <v>266</v>
@@ -3784,13 +3037,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="D82">
         <v>270</v>
@@ -3798,13 +3051,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="D83">
         <v>268</v>
@@ -3812,13 +3065,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="D84">
         <v>276</v>
@@ -3826,13 +3079,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="D85">
         <v>288</v>
@@ -3840,13 +3093,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="D86">
         <v>292</v>
@@ -3854,13 +3107,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="D87">
         <v>300</v>
@@ -3868,13 +3121,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="D88">
         <v>304</v>
@@ -3882,13 +3135,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="D89">
         <v>308</v>
@@ -3896,13 +3149,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="D90">
         <v>312</v>
@@ -3910,13 +3163,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="D91">
         <v>316</v>
@@ -3924,13 +3177,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="D92">
         <v>320</v>
@@ -3938,13 +3191,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="D93">
         <v>831</v>
@@ -3952,13 +3205,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="D94">
         <v>324</v>
@@ -3966,13 +3219,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="D95">
         <v>624</v>
@@ -3980,13 +3233,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>189</v>
       </c>
       <c r="D96">
         <v>328</v>
@@ -3994,13 +3247,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="D97">
         <v>332</v>
@@ -4008,13 +3261,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="D98">
         <v>334</v>
@@ -4022,13 +3275,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D99">
         <v>336</v>
@@ -4036,13 +3289,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="D100">
         <v>340</v>
@@ -4050,13 +3303,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="D101">
         <v>344</v>
@@ -4064,13 +3317,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="D102">
         <v>348</v>
@@ -4078,13 +3331,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="D103">
         <v>352</v>
@@ -4092,13 +3345,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="D104">
         <v>356</v>
@@ -4106,13 +3359,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="D105">
         <v>360</v>
@@ -4120,13 +3373,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="D106">
         <v>364</v>
@@ -4134,13 +3387,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>211</v>
       </c>
       <c r="D107">
         <v>368</v>
@@ -4148,13 +3401,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="B108" t="s">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="D108">
         <v>372</v>
@@ -4162,13 +3415,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="D109">
         <v>833</v>
@@ -4176,13 +3429,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="B110" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="D110">
         <v>376</v>
@@ -4190,13 +3443,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="D111">
         <v>380</v>
@@ -4204,13 +3457,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>331</v>
+        <v>220</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="D112">
         <v>388</v>
@@ -4218,13 +3471,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="D113">
         <v>392</v>
@@ -4232,13 +3485,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="D114">
         <v>832</v>
@@ -4246,13 +3499,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="D115">
         <v>400</v>
@@ -4260,13 +3513,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="D116">
         <v>398</v>
@@ -4274,13 +3527,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>346</v>
+        <v>230</v>
       </c>
       <c r="B117" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="C117" t="s">
-        <v>347</v>
+        <v>231</v>
       </c>
       <c r="D117">
         <v>404</v>
@@ -4288,13 +3541,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="D118">
         <v>296</v>
@@ -4302,13 +3555,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="D119">
         <v>408</v>
@@ -4316,13 +3569,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="D120">
         <v>410</v>
@@ -4330,13 +3583,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="D121">
         <v>414</v>
@@ -4344,13 +3597,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>241</v>
       </c>
       <c r="D122">
         <v>417</v>
@@ -4358,13 +3611,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="D123">
         <v>418</v>
@@ -4372,13 +3625,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
       <c r="D124">
         <v>428</v>
@@ -4386,13 +3639,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>370</v>
+        <v>246</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="D125">
         <v>422</v>
@@ -4400,13 +3653,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>248</v>
       </c>
       <c r="B126" t="s">
-        <v>372</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="D126">
         <v>426</v>
@@ -4414,13 +3667,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="B127" t="s">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="D127">
         <v>430</v>
@@ -4428,13 +3681,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>253</v>
       </c>
       <c r="D128">
         <v>434</v>
@@ -4442,13 +3695,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="D129">
         <v>438</v>
@@ -4456,13 +3709,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="D130">
         <v>440</v>
@@ -4470,13 +3723,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="B131" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>259</v>
       </c>
       <c r="D131">
         <v>442</v>
@@ -4484,13 +3737,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="D132">
         <v>446</v>
@@ -4498,13 +3751,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>263</v>
       </c>
       <c r="D133">
         <v>450</v>
@@ -4512,13 +3765,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>264</v>
       </c>
       <c r="B134" t="s">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="D134">
         <v>454</v>
@@ -4526,13 +3779,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>266</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
+        <v>267</v>
       </c>
       <c r="D135">
         <v>458</v>
@@ -4540,13 +3793,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>269</v>
       </c>
       <c r="D136">
         <v>462</v>
@@ -4554,13 +3807,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="D137">
         <v>466</v>
@@ -4568,13 +3821,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="B138" t="s">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
+        <v>273</v>
       </c>
       <c r="D138">
         <v>470</v>
@@ -4582,13 +3835,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>412</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="C139" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="D139">
         <v>584</v>
@@ -4596,13 +3849,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>276</v>
       </c>
       <c r="B140" t="s">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
+        <v>277</v>
       </c>
       <c r="D140">
         <v>474</v>
@@ -4610,13 +3863,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="D141">
         <v>478</v>
@@ -4624,13 +3877,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>280</v>
       </c>
       <c r="B142" t="s">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>281</v>
       </c>
       <c r="D142">
         <v>480</v>
@@ -4638,13 +3891,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>282</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="D143">
         <v>175</v>
@@ -4652,13 +3905,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
-        <v>426</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="D144">
         <v>484</v>
@@ -4666,13 +3919,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>286</v>
       </c>
       <c r="B145" t="s">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="D145">
         <v>583</v>
@@ -4680,13 +3933,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>434</v>
+        <v>289</v>
       </c>
       <c r="D146">
         <v>498</v>
@@ -4694,13 +3947,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>290</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>437</v>
+        <v>291</v>
       </c>
       <c r="D147">
         <v>492</v>
@@ -4708,13 +3961,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>439</v>
+        <v>292</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>292</v>
       </c>
       <c r="C148" t="s">
-        <v>440</v>
+        <v>293</v>
       </c>
       <c r="D148">
         <v>496</v>
@@ -4722,13 +3975,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>294</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="D149">
         <v>499</v>
@@ -4736,13 +3989,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="C150" t="s">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="D150">
         <v>500</v>
@@ -4750,13 +4003,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
-        <v>447</v>
+        <v>298</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="D151">
         <v>504</v>
@@ -4764,13 +4017,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>300</v>
       </c>
       <c r="B152" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C152" t="s">
-        <v>452</v>
+        <v>301</v>
       </c>
       <c r="D152">
         <v>508</v>
@@ -4778,13 +4031,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>302</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>455</v>
+        <v>303</v>
       </c>
       <c r="D153">
         <v>104</v>
@@ -4792,13 +4045,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>457</v>
+        <v>304</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>304</v>
       </c>
       <c r="C154" t="s">
-        <v>458</v>
+        <v>305</v>
       </c>
       <c r="D154">
         <v>516</v>
@@ -4806,13 +4059,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="B155" t="s">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>461</v>
+        <v>307</v>
       </c>
       <c r="D155">
         <v>520</v>
@@ -4820,13 +4073,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>463</v>
+        <v>308</v>
       </c>
       <c r="B156" t="s">
-        <v>462</v>
+        <v>308</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="D156">
         <v>524</v>
@@ -4834,13 +4087,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>466</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>467</v>
+        <v>311</v>
       </c>
       <c r="D157">
         <v>528</v>
@@ -4848,13 +4101,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>469</v>
+        <v>312</v>
       </c>
       <c r="B158" t="s">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>470</v>
+        <v>313</v>
       </c>
       <c r="D158">
         <v>540</v>
@@ -4862,13 +4115,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>472</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="C159" t="s">
-        <v>473</v>
+        <v>315</v>
       </c>
       <c r="D159">
         <v>554</v>
@@ -4876,13 +4129,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>476</v>
+        <v>317</v>
       </c>
       <c r="D160">
         <v>558</v>
@@ -4890,13 +4143,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
       <c r="C161" t="s">
-        <v>479</v>
+        <v>319</v>
       </c>
       <c r="D161">
         <v>562</v>
@@ -4904,13 +4157,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>481</v>
+        <v>320</v>
       </c>
       <c r="B162" t="s">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="C162" t="s">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="D162">
         <v>566</v>
@@ -4918,13 +4171,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="B163" t="s">
-        <v>483</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
-        <v>485</v>
+        <v>323</v>
       </c>
       <c r="D163">
         <v>570</v>
@@ -4932,13 +4185,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>324</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>324</v>
       </c>
       <c r="C164" t="s">
-        <v>488</v>
+        <v>325</v>
       </c>
       <c r="D164">
         <v>574</v>
@@ -4946,13 +4199,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="D165">
         <v>580</v>
@@ -4960,13 +4213,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>328</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>494</v>
+        <v>329</v>
       </c>
       <c r="D166">
         <v>578</v>
@@ -4974,13 +4227,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>496</v>
+        <v>330</v>
       </c>
       <c r="B167" t="s">
-        <v>495</v>
+        <v>330</v>
       </c>
       <c r="C167" t="s">
-        <v>497</v>
+        <v>331</v>
       </c>
       <c r="D167">
         <v>512</v>
@@ -4988,13 +4241,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>499</v>
+        <v>332</v>
       </c>
       <c r="B168" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="C168" t="s">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="D168">
         <v>586</v>
@@ -5002,13 +4255,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>502</v>
+        <v>334</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="D169">
         <v>585</v>
@@ -5016,13 +4269,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>336</v>
       </c>
       <c r="B170" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="D170">
         <v>275</v>
@@ -5030,13 +4283,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>508</v>
+        <v>338</v>
       </c>
       <c r="B171" t="s">
-        <v>507</v>
+        <v>338</v>
       </c>
       <c r="C171" t="s">
-        <v>509</v>
+        <v>339</v>
       </c>
       <c r="D171">
         <v>591</v>
@@ -5044,13 +4297,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>511</v>
+        <v>340</v>
       </c>
       <c r="B172" t="s">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="C172" t="s">
-        <v>512</v>
+        <v>341</v>
       </c>
       <c r="D172">
         <v>598</v>
@@ -5058,13 +4311,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>514</v>
+        <v>342</v>
       </c>
       <c r="B173" t="s">
-        <v>513</v>
+        <v>342</v>
       </c>
       <c r="C173" t="s">
-        <v>515</v>
+        <v>343</v>
       </c>
       <c r="D173">
         <v>600</v>
@@ -5072,13 +4325,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>517</v>
+        <v>344</v>
       </c>
       <c r="B174" t="s">
-        <v>516</v>
+        <v>344</v>
       </c>
       <c r="C174" t="s">
-        <v>518</v>
+        <v>345</v>
       </c>
       <c r="D174">
         <v>604</v>
@@ -5086,13 +4339,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>520</v>
+        <v>346</v>
       </c>
       <c r="B175" t="s">
-        <v>519</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
-        <v>521</v>
+        <v>347</v>
       </c>
       <c r="D175">
         <v>608</v>
@@ -5100,13 +4353,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>522</v>
+        <v>348</v>
       </c>
       <c r="C176" t="s">
-        <v>524</v>
+        <v>349</v>
       </c>
       <c r="D176">
         <v>612</v>
@@ -5114,13 +4367,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>526</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="C177" t="s">
-        <v>527</v>
+        <v>351</v>
       </c>
       <c r="D177">
         <v>616</v>
@@ -5128,13 +4381,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="B178" t="s">
-        <v>528</v>
+        <v>352</v>
       </c>
       <c r="C178" t="s">
-        <v>530</v>
+        <v>353</v>
       </c>
       <c r="D178">
         <v>620</v>
@@ -5142,13 +4395,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>532</v>
+        <v>354</v>
       </c>
       <c r="B179" t="s">
-        <v>531</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
-        <v>533</v>
+        <v>355</v>
       </c>
       <c r="D179">
         <v>630</v>
@@ -5156,13 +4409,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>535</v>
+        <v>356</v>
       </c>
       <c r="B180" t="s">
-        <v>534</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>536</v>
+        <v>357</v>
       </c>
       <c r="D180">
         <v>634</v>
@@ -5170,13 +4423,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>538</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>537</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="D181">
         <v>807</v>
@@ -5184,13 +4437,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>541</v>
+        <v>360</v>
       </c>
       <c r="B182" t="s">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="D182">
         <v>642</v>
@@ -5198,13 +4451,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>544</v>
+        <v>362</v>
       </c>
       <c r="B183" t="s">
-        <v>543</v>
+        <v>362</v>
       </c>
       <c r="C183" t="s">
-        <v>545</v>
+        <v>363</v>
       </c>
       <c r="D183">
         <v>643</v>
@@ -5212,13 +4465,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>547</v>
+        <v>364</v>
       </c>
       <c r="B184" t="s">
-        <v>546</v>
+        <v>364</v>
       </c>
       <c r="C184" t="s">
-        <v>548</v>
+        <v>365</v>
       </c>
       <c r="D184">
         <v>646</v>
@@ -5226,13 +4479,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>550</v>
+        <v>366</v>
       </c>
       <c r="B185" t="s">
-        <v>549</v>
+        <v>366</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>367</v>
       </c>
       <c r="D185">
         <v>638</v>
@@ -5240,13 +4493,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>553</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
-        <v>552</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
-        <v>554</v>
+        <v>369</v>
       </c>
       <c r="D186">
         <v>652</v>
@@ -5254,13 +4507,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>556</v>
+        <v>370</v>
       </c>
       <c r="B187" t="s">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="C187" t="s">
-        <v>557</v>
+        <v>371</v>
       </c>
       <c r="D187">
         <v>654</v>
@@ -5268,13 +4521,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>559</v>
+        <v>372</v>
       </c>
       <c r="B188" t="s">
-        <v>558</v>
+        <v>372</v>
       </c>
       <c r="C188" t="s">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="D188">
         <v>659</v>
@@ -5282,13 +4535,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>562</v>
+        <v>374</v>
       </c>
       <c r="B189" t="s">
-        <v>561</v>
+        <v>374</v>
       </c>
       <c r="C189" t="s">
-        <v>563</v>
+        <v>375</v>
       </c>
       <c r="D189">
         <v>662</v>
@@ -5296,13 +4549,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>565</v>
+        <v>376</v>
       </c>
       <c r="B190" t="s">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="C190" t="s">
-        <v>566</v>
+        <v>377</v>
       </c>
       <c r="D190">
         <v>663</v>
@@ -5310,13 +4563,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>568</v>
+        <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>569</v>
+        <v>379</v>
       </c>
       <c r="D191">
         <v>666</v>
@@ -5324,13 +4577,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>571</v>
+        <v>380</v>
       </c>
       <c r="B192" t="s">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
+        <v>381</v>
       </c>
       <c r="D192">
         <v>670</v>
@@ -5338,13 +4591,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>574</v>
+        <v>382</v>
       </c>
       <c r="B193" t="s">
-        <v>573</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
-        <v>575</v>
+        <v>383</v>
       </c>
       <c r="D193">
         <v>882</v>
@@ -5352,13 +4605,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>577</v>
+        <v>384</v>
       </c>
       <c r="B194" t="s">
-        <v>576</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
-        <v>578</v>
+        <v>385</v>
       </c>
       <c r="D194">
         <v>674</v>
@@ -5366,13 +4619,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="B195" t="s">
-        <v>579</v>
+        <v>386</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
+        <v>387</v>
       </c>
       <c r="D195">
         <v>678</v>
@@ -5380,13 +4633,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="B196" t="s">
-        <v>582</v>
+        <v>388</v>
       </c>
       <c r="C196" t="s">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="D196">
         <v>682</v>
@@ -5394,13 +4647,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>586</v>
+        <v>390</v>
       </c>
       <c r="B197" t="s">
-        <v>585</v>
+        <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>587</v>
+        <v>391</v>
       </c>
       <c r="D197">
         <v>686</v>
@@ -5408,13 +4661,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>589</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>588</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
+        <v>393</v>
       </c>
       <c r="D198">
         <v>688</v>
@@ -5422,13 +4675,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>592</v>
+        <v>394</v>
       </c>
       <c r="B199" t="s">
-        <v>591</v>
+        <v>394</v>
       </c>
       <c r="C199" t="s">
-        <v>593</v>
+        <v>395</v>
       </c>
       <c r="D199">
         <v>690</v>
@@ -5436,13 +4689,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>595</v>
+        <v>396</v>
       </c>
       <c r="B200" t="s">
-        <v>594</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
-        <v>596</v>
+        <v>397</v>
       </c>
       <c r="D200">
         <v>694</v>
@@ -5450,13 +4703,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>598</v>
+        <v>398</v>
       </c>
       <c r="B201" t="s">
-        <v>597</v>
+        <v>398</v>
       </c>
       <c r="C201" t="s">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="D201">
         <v>702</v>
@@ -5464,13 +4717,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>601</v>
+        <v>400</v>
       </c>
       <c r="B202" t="s">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C202" t="s">
-        <v>602</v>
+        <v>401</v>
       </c>
       <c r="D202">
         <v>534</v>
@@ -5478,13 +4731,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>604</v>
+        <v>402</v>
       </c>
       <c r="B203" t="s">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="C203" t="s">
-        <v>605</v>
+        <v>403</v>
       </c>
       <c r="D203">
         <v>703</v>
@@ -5492,13 +4745,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>607</v>
+        <v>404</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>404</v>
       </c>
       <c r="C204" t="s">
-        <v>608</v>
+        <v>405</v>
       </c>
       <c r="D204">
         <v>705</v>
@@ -5506,13 +4759,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>610</v>
+        <v>406</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>406</v>
       </c>
       <c r="C205" t="s">
-        <v>611</v>
+        <v>407</v>
       </c>
       <c r="D205">
         <v>90</v>
@@ -5520,13 +4773,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>613</v>
+        <v>408</v>
       </c>
       <c r="B206" t="s">
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="D206">
         <v>706</v>
@@ -5534,13 +4787,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>616</v>
+        <v>410</v>
       </c>
       <c r="B207" t="s">
-        <v>615</v>
+        <v>410</v>
       </c>
       <c r="C207" t="s">
-        <v>617</v>
+        <v>411</v>
       </c>
       <c r="D207">
         <v>710</v>
@@ -5548,13 +4801,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>619</v>
+        <v>412</v>
       </c>
       <c r="B208" t="s">
-        <v>618</v>
+        <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>620</v>
+        <v>413</v>
       </c>
       <c r="D208">
         <v>239</v>
@@ -5562,13 +4815,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>622</v>
+        <v>414</v>
       </c>
       <c r="B209" t="s">
-        <v>621</v>
+        <v>414</v>
       </c>
       <c r="C209" t="s">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="D209">
         <v>728</v>
@@ -5576,13 +4829,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>625</v>
+        <v>416</v>
       </c>
       <c r="B210" t="s">
-        <v>624</v>
+        <v>416</v>
       </c>
       <c r="C210" t="s">
-        <v>626</v>
+        <v>417</v>
       </c>
       <c r="D210">
         <v>724</v>
@@ -5590,13 +4843,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>628</v>
+        <v>418</v>
       </c>
       <c r="B211" t="s">
-        <v>627</v>
+        <v>418</v>
       </c>
       <c r="C211" t="s">
-        <v>629</v>
+        <v>419</v>
       </c>
       <c r="D211">
         <v>144</v>
@@ -5604,13 +4857,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>631</v>
+        <v>420</v>
       </c>
       <c r="B212" t="s">
-        <v>630</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
-        <v>632</v>
+        <v>421</v>
       </c>
       <c r="D212">
         <v>729</v>
@@ -5618,13 +4871,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>634</v>
+        <v>422</v>
       </c>
       <c r="B213" t="s">
-        <v>633</v>
+        <v>422</v>
       </c>
       <c r="C213" t="s">
-        <v>635</v>
+        <v>423</v>
       </c>
       <c r="D213">
         <v>740</v>
@@ -5632,13 +4885,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>637</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>636</v>
+        <v>424</v>
       </c>
       <c r="C214" t="s">
-        <v>638</v>
+        <v>425</v>
       </c>
       <c r="D214">
         <v>744</v>
@@ -5646,13 +4899,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>640</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>639</v>
+        <v>426</v>
       </c>
       <c r="C215" t="s">
-        <v>641</v>
+        <v>427</v>
       </c>
       <c r="D215">
         <v>752</v>
@@ -5660,13 +4913,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>643</v>
+        <v>428</v>
       </c>
       <c r="B216" t="s">
-        <v>642</v>
+        <v>428</v>
       </c>
       <c r="C216" t="s">
-        <v>644</v>
+        <v>429</v>
       </c>
       <c r="D216">
         <v>756</v>
@@ -5674,13 +4927,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>646</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s">
-        <v>645</v>
+        <v>430</v>
       </c>
       <c r="C217" t="s">
-        <v>647</v>
+        <v>431</v>
       </c>
       <c r="D217">
         <v>760</v>
@@ -5688,13 +4941,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>649</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>648</v>
+        <v>432</v>
       </c>
       <c r="C218" t="s">
-        <v>650</v>
+        <v>433</v>
       </c>
       <c r="D218">
         <v>158</v>
@@ -5702,13 +4955,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>652</v>
+        <v>434</v>
       </c>
       <c r="B219" t="s">
-        <v>651</v>
+        <v>434</v>
       </c>
       <c r="C219" t="s">
-        <v>653</v>
+        <v>435</v>
       </c>
       <c r="D219">
         <v>762</v>
@@ -5716,13 +4969,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>655</v>
+        <v>436</v>
       </c>
       <c r="B220" t="s">
-        <v>654</v>
+        <v>436</v>
       </c>
       <c r="C220" t="s">
-        <v>656</v>
+        <v>437</v>
       </c>
       <c r="D220">
         <v>834</v>
@@ -5730,13 +4983,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>658</v>
+        <v>438</v>
       </c>
       <c r="B221" t="s">
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="C221" t="s">
-        <v>659</v>
+        <v>439</v>
       </c>
       <c r="D221">
         <v>764</v>
@@ -5744,13 +4997,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B222" t="s">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="C222" t="s">
-        <v>662</v>
+        <v>441</v>
       </c>
       <c r="D222">
         <v>626</v>
@@ -5758,13 +5011,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>664</v>
+        <v>442</v>
       </c>
       <c r="B223" t="s">
-        <v>663</v>
+        <v>442</v>
       </c>
       <c r="C223" t="s">
-        <v>665</v>
+        <v>443</v>
       </c>
       <c r="D223">
         <v>768</v>
@@ -5772,13 +5025,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="B224" t="s">
-        <v>666</v>
+        <v>444</v>
       </c>
       <c r="C224" t="s">
-        <v>668</v>
+        <v>445</v>
       </c>
       <c r="D224">
         <v>772</v>
@@ -5786,13 +5039,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>670</v>
+        <v>446</v>
       </c>
       <c r="B225" t="s">
-        <v>669</v>
+        <v>446</v>
       </c>
       <c r="C225" t="s">
-        <v>671</v>
+        <v>447</v>
       </c>
       <c r="D225">
         <v>776</v>
@@ -5800,13 +5053,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>673</v>
+        <v>448</v>
       </c>
       <c r="B226" t="s">
-        <v>672</v>
+        <v>448</v>
       </c>
       <c r="C226" t="s">
-        <v>674</v>
+        <v>449</v>
       </c>
       <c r="D226">
         <v>780</v>
@@ -5814,13 +5067,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>676</v>
+        <v>450</v>
       </c>
       <c r="B227" t="s">
-        <v>675</v>
+        <v>450</v>
       </c>
       <c r="C227" t="s">
-        <v>677</v>
+        <v>451</v>
       </c>
       <c r="D227">
         <v>788</v>
@@ -5828,13 +5081,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>679</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>678</v>
+        <v>452</v>
       </c>
       <c r="C228" t="s">
-        <v>680</v>
+        <v>453</v>
       </c>
       <c r="D228">
         <v>792</v>
@@ -5842,13 +5095,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>682</v>
+        <v>454</v>
       </c>
       <c r="B229" t="s">
-        <v>681</v>
+        <v>454</v>
       </c>
       <c r="C229" t="s">
-        <v>683</v>
+        <v>455</v>
       </c>
       <c r="D229">
         <v>795</v>
@@ -5856,13 +5109,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>685</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
+        <v>456</v>
       </c>
       <c r="C230" t="s">
-        <v>686</v>
+        <v>457</v>
       </c>
       <c r="D230">
         <v>796</v>
@@ -5870,13 +5123,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>688</v>
+        <v>458</v>
       </c>
       <c r="B231" t="s">
-        <v>687</v>
+        <v>458</v>
       </c>
       <c r="C231" t="s">
-        <v>689</v>
+        <v>459</v>
       </c>
       <c r="D231">
         <v>798</v>
@@ -5884,13 +5137,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>691</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
-        <v>690</v>
+        <v>460</v>
       </c>
       <c r="C232" t="s">
-        <v>692</v>
+        <v>461</v>
       </c>
       <c r="D232">
         <v>800</v>
@@ -5898,13 +5151,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>694</v>
+        <v>462</v>
       </c>
       <c r="B233" t="s">
-        <v>693</v>
+        <v>462</v>
       </c>
       <c r="C233" t="s">
-        <v>695</v>
+        <v>463</v>
       </c>
       <c r="D233">
         <v>804</v>
@@ -5912,13 +5165,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>697</v>
+        <v>464</v>
       </c>
       <c r="B234" t="s">
-        <v>696</v>
+        <v>464</v>
       </c>
       <c r="C234" t="s">
-        <v>698</v>
+        <v>465</v>
       </c>
       <c r="D234">
         <v>784</v>
@@ -5926,13 +5179,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>700</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>699</v>
+        <v>466</v>
       </c>
       <c r="C235" t="s">
-        <v>701</v>
+        <v>467</v>
       </c>
       <c r="D235">
         <v>826</v>
@@ -5940,13 +5193,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>703</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>702</v>
+        <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>704</v>
+        <v>469</v>
       </c>
       <c r="D236">
         <v>581</v>
@@ -5954,13 +5207,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>706</v>
+        <v>470</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>470</v>
       </c>
       <c r="C237" t="s">
-        <v>707</v>
+        <v>471</v>
       </c>
       <c r="D237">
         <v>840</v>
@@ -5968,13 +5221,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>709</v>
+        <v>472</v>
       </c>
       <c r="B238" t="s">
-        <v>708</v>
+        <v>472</v>
       </c>
       <c r="C238" t="s">
-        <v>710</v>
+        <v>473</v>
       </c>
       <c r="D238">
         <v>858</v>
@@ -5982,13 +5235,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>712</v>
+        <v>474</v>
       </c>
       <c r="B239" t="s">
-        <v>711</v>
+        <v>474</v>
       </c>
       <c r="C239" t="s">
-        <v>713</v>
+        <v>475</v>
       </c>
       <c r="D239">
         <v>860</v>
@@ -5996,13 +5249,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>715</v>
+        <v>476</v>
       </c>
       <c r="B240" t="s">
-        <v>714</v>
+        <v>476</v>
       </c>
       <c r="C240" t="s">
-        <v>716</v>
+        <v>477</v>
       </c>
       <c r="D240">
         <v>548</v>
@@ -6010,13 +5263,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>718</v>
+        <v>478</v>
       </c>
       <c r="B241" t="s">
-        <v>717</v>
+        <v>478</v>
       </c>
       <c r="C241" t="s">
-        <v>719</v>
+        <v>479</v>
       </c>
       <c r="D241">
         <v>862</v>
@@ -6024,13 +5277,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>721</v>
+        <v>480</v>
       </c>
       <c r="B242" t="s">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="C242" t="s">
-        <v>722</v>
+        <v>481</v>
       </c>
       <c r="D242">
         <v>704</v>
@@ -6038,13 +5291,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>724</v>
+        <v>482</v>
       </c>
       <c r="B243" t="s">
-        <v>723</v>
+        <v>482</v>
       </c>
       <c r="C243" t="s">
-        <v>725</v>
+        <v>483</v>
       </c>
       <c r="D243">
         <v>92</v>
@@ -6052,13 +5305,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>727</v>
+        <v>484</v>
       </c>
       <c r="B244" t="s">
-        <v>726</v>
+        <v>484</v>
       </c>
       <c r="C244" t="s">
-        <v>728</v>
+        <v>485</v>
       </c>
       <c r="D244">
         <v>850</v>
@@ -6066,13 +5319,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>730</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>729</v>
+        <v>486</v>
       </c>
       <c r="C245" t="s">
-        <v>731</v>
+        <v>487</v>
       </c>
       <c r="D245">
         <v>876</v>
@@ -6080,13 +5333,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>733</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>732</v>
+        <v>488</v>
       </c>
       <c r="C246" t="s">
-        <v>734</v>
+        <v>489</v>
       </c>
       <c r="D246">
         <v>732</v>
@@ -6094,13 +5347,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>736</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s">
-        <v>735</v>
+        <v>490</v>
       </c>
       <c r="C247" t="s">
-        <v>737</v>
+        <v>491</v>
       </c>
       <c r="D247">
         <v>887</v>
@@ -6108,13 +5361,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>739</v>
+        <v>492</v>
       </c>
       <c r="B248" t="s">
-        <v>738</v>
+        <v>492</v>
       </c>
       <c r="C248" t="s">
-        <v>740</v>
+        <v>493</v>
       </c>
       <c r="D248">
         <v>894</v>
@@ -6122,13 +5375,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>742</v>
+        <v>494</v>
       </c>
       <c r="B249" t="s">
-        <v>741</v>
+        <v>494</v>
       </c>
       <c r="C249" t="s">
-        <v>743</v>
+        <v>495</v>
       </c>
       <c r="D249">
         <v>716</v>
@@ -6136,13 +5389,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>745</v>
+        <v>496</v>
       </c>
       <c r="B250" t="s">
-        <v>744</v>
+        <v>496</v>
       </c>
       <c r="C250" t="s">
-        <v>746</v>
+        <v>497</v>
       </c>
       <c r="D250">
         <v>248</v>

--- a/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/Paises3166.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/Paises3166.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Pacientes/CargaPaciente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF646AE-B6A4-F24F-A933-2E97004659CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D161DB-7179-CE4C-B4D7-80802D39EAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7F015167-1749-8F45-A247-C3195461C0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="752">
+  <si>
+    <t>Afghanistan</t>
+  </si>
   <si>
     <t>AF</t>
   </si>
@@ -44,1488 +48,2232 @@
     <t>AFG</t>
   </si>
   <si>
+    <t>Albania</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
     <t>ALB</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
     <t>DZ</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
     <t>AS</t>
   </si>
   <si>
     <t>ASM</t>
   </si>
   <si>
+    <t>Andorra</t>
+  </si>
+  <si>
     <t>AD</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
+    <t>Angola</t>
+  </si>
+  <si>
     <t>AO</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
     <t>AI</t>
   </si>
   <si>
     <t>AIA</t>
   </si>
   <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
     <t>AQ</t>
   </si>
   <si>
     <t>ATA</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
     <t>AG</t>
   </si>
   <si>
     <t>ATG</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
     <t>ARG</t>
   </si>
   <si>
+    <t>Armenia</t>
+  </si>
+  <si>
     <t>AM</t>
   </si>
   <si>
     <t>ARM</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
     <t>AW</t>
   </si>
   <si>
     <t>ABW</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
     <t>AU</t>
   </si>
   <si>
     <t>AUS</t>
   </si>
   <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>AT</t>
   </si>
   <si>
     <t>AUT</t>
   </si>
   <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
     <t>AZE</t>
   </si>
   <si>
+    <t>Bahamas (the)</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
     <t>BHS</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>BH</t>
   </si>
   <si>
     <t>BHR</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
     <t>BD</t>
   </si>
   <si>
     <t>BGD</t>
   </si>
   <si>
+    <t>Barbados</t>
+  </si>
+  <si>
     <t>BB</t>
   </si>
   <si>
     <t>BRB</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
     <t>BY</t>
   </si>
   <si>
     <t>BLR</t>
   </si>
   <si>
+    <t>Belgium</t>
+  </si>
+  <si>
     <t>BE</t>
   </si>
   <si>
     <t>BEL</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
     <t>BZ</t>
   </si>
   <si>
     <t>BLZ</t>
   </si>
   <si>
+    <t>Benin</t>
+  </si>
+  <si>
     <t>BJ</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
     <t>BM</t>
   </si>
   <si>
     <t>BMU</t>
   </si>
   <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
     <t>BT</t>
   </si>
   <si>
     <t>BTN</t>
   </si>
   <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
     <t>BO</t>
   </si>
   <si>
     <t>BOL</t>
   </si>
   <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
     <t>BQ</t>
   </si>
   <si>
     <t>BES</t>
   </si>
   <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
     <t>BIH</t>
   </si>
   <si>
+    <t>Botswana</t>
+  </si>
+  <si>
     <t>BW</t>
   </si>
   <si>
     <t>BWA</t>
   </si>
   <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
     <t>BV</t>
   </si>
   <si>
     <t>BVT</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
     <t>BR</t>
   </si>
   <si>
     <t>BRA</t>
   </si>
   <si>
+    <t>British Indian Ocean Territory (the)</t>
+  </si>
+  <si>
     <t>IO</t>
   </si>
   <si>
     <t>IOT</t>
   </si>
   <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
     <t>BN</t>
   </si>
   <si>
     <t>BRN</t>
   </si>
   <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
     <t>BG</t>
   </si>
   <si>
     <t>BGR</t>
   </si>
   <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
     <t>BF</t>
   </si>
   <si>
     <t>BFA</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
     <t>BI</t>
   </si>
   <si>
     <t>BDI</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
     <t>CV</t>
   </si>
   <si>
     <t>CPV</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
     <t>KH</t>
   </si>
   <si>
     <t>KHM</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
     <t>CM</t>
   </si>
   <si>
     <t>CMR</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
     <t>CAN</t>
   </si>
   <si>
+    <t>Cayman Islands (the)</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
     <t>CYM</t>
   </si>
   <si>
+    <t>Central African Republic (the)</t>
+  </si>
+  <si>
     <t>CF</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
+    <t>Chad</t>
+  </si>
+  <si>
     <t>TD</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
+    <t>Chile</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
     <t>CHL</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
     <t>CN</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
     <t>CX</t>
   </si>
   <si>
     <t>CXR</t>
   </si>
   <si>
+    <t>Cocos (Keeling) Islands (the)</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
     <t>CCK</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
     <t>COL</t>
   </si>
   <si>
+    <t>Comoros (the)</t>
+  </si>
+  <si>
     <t>KM</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
+    <t>Congo (the Democratic Republic of the)</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
+    <t>Congo (the)</t>
+  </si>
+  <si>
     <t>CG</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
+    <t>Cook Islands (the)</t>
+  </si>
+  <si>
     <t>CK</t>
   </si>
   <si>
     <t>COK</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CR</t>
   </si>
   <si>
     <t>CRI</t>
   </si>
   <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
     <t>HRV</t>
   </si>
   <si>
+    <t>Cuba</t>
+  </si>
+  <si>
     <t>CU</t>
   </si>
   <si>
     <t>CUB</t>
   </si>
   <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
     <t>CW</t>
   </si>
   <si>
     <t>CUW</t>
   </si>
   <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
     <t>CY</t>
   </si>
   <si>
     <t>CYP</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>CZ</t>
   </si>
   <si>
     <t>CZE</t>
   </si>
   <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
     <t>CIV</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
     <t>DK</t>
   </si>
   <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
     <t>DJ</t>
   </si>
   <si>
     <t>DJI</t>
   </si>
   <si>
+    <t>Dominica</t>
+  </si>
+  <si>
     <t>DM</t>
   </si>
   <si>
     <t>DMA</t>
   </si>
   <si>
+    <t>Dominican Republic (the)</t>
+  </si>
+  <si>
     <t>DO</t>
   </si>
   <si>
     <t>DOM</t>
   </si>
   <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
     <t>EC</t>
   </si>
   <si>
     <t>ECU</t>
   </si>
   <si>
+    <t>Egypt</t>
+  </si>
+  <si>
     <t>EG</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
     <t>SV</t>
   </si>
   <si>
     <t>SLV</t>
   </si>
   <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
     <t>GQ</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>ER</t>
   </si>
   <si>
     <t>ERI</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
     <t>EST</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>SZ</t>
   </si>
   <si>
     <t>SWZ</t>
   </si>
   <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
     <t>ET</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
+    <t>Falkland Islands (the) [Malvinas]</t>
+  </si>
+  <si>
     <t>FK</t>
   </si>
   <si>
     <t>FLK</t>
   </si>
   <si>
+    <t>Faroe Islands (the)</t>
+  </si>
+  <si>
     <t>FO</t>
   </si>
   <si>
     <t>FRO</t>
   </si>
   <si>
+    <t>Fiji</t>
+  </si>
+  <si>
     <t>FJ</t>
   </si>
   <si>
     <t>FJI</t>
   </si>
   <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>FI</t>
   </si>
   <si>
     <t>FIN</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>FR</t>
   </si>
   <si>
     <t>FRA</t>
   </si>
   <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
     <t>GF</t>
   </si>
   <si>
     <t>GUF</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
     <t>PYF</t>
   </si>
   <si>
+    <t>French Southern Territories (the)</t>
+  </si>
+  <si>
     <t>TF</t>
   </si>
   <si>
     <t>ATF</t>
   </si>
   <si>
+    <t>Gabon</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
+    <t>Gambia (the)</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
     <t>GMB</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
     <t>GEO</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
     <t>DEU</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
     <t>GH</t>
   </si>
   <si>
     <t>GHA</t>
   </si>
   <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
     <t>GI</t>
   </si>
   <si>
     <t>GIB</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
     <t>GR</t>
   </si>
   <si>
     <t>GRC</t>
   </si>
   <si>
+    <t>Greenland</t>
+  </si>
+  <si>
     <t>GL</t>
   </si>
   <si>
     <t>GRL</t>
   </si>
   <si>
+    <t>Grenada</t>
+  </si>
+  <si>
     <t>GD</t>
   </si>
   <si>
     <t>GRD</t>
   </si>
   <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
     <t>GP</t>
   </si>
   <si>
     <t>GLP</t>
   </si>
   <si>
+    <t>Guam</t>
+  </si>
+  <si>
     <t>GU</t>
   </si>
   <si>
     <t>GUM</t>
   </si>
   <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
     <t>GT</t>
   </si>
   <si>
     <t>GTM</t>
   </si>
   <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
     <t>GG</t>
   </si>
   <si>
     <t>GGY</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
     <t>GN</t>
   </si>
   <si>
     <t>GIN</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
     <t>GW</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>GY</t>
   </si>
   <si>
     <t>GUY</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
     <t>HT</t>
   </si>
   <si>
     <t>HTI</t>
   </si>
   <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
     <t>HM</t>
   </si>
   <si>
     <t>HMD</t>
   </si>
   <si>
+    <t>Holy See (the)</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
     <t>VAT</t>
   </si>
   <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>HN</t>
   </si>
   <si>
     <t>HND</t>
   </si>
   <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>HK</t>
   </si>
   <si>
     <t>HKG</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>HU</t>
   </si>
   <si>
     <t>HUN</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>IS</t>
   </si>
   <si>
     <t>ISL</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
     <t>IND</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>IDN</t>
   </si>
   <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
     <t>IR</t>
   </si>
   <si>
     <t>IRN</t>
   </si>
   <si>
+    <t>Iraq</t>
+  </si>
+  <si>
     <t>IQ</t>
   </si>
   <si>
     <t>IRQ</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
     <t>IE</t>
   </si>
   <si>
     <t>IRL</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
     <t>IM</t>
   </si>
   <si>
     <t>IMN</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
     <t>ISR</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
     <t>ITA</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>JM</t>
   </si>
   <si>
     <t>JAM</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
     <t>JP</t>
   </si>
   <si>
     <t>JPN</t>
   </si>
   <si>
+    <t>Jersey</t>
+  </si>
+  <si>
     <t>JE</t>
   </si>
   <si>
     <t>JEY</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
     <t>JO</t>
   </si>
   <si>
     <t>JOR</t>
   </si>
   <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
     <t>KZ</t>
   </si>
   <si>
     <t>KAZ</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>KE</t>
   </si>
   <si>
     <t>KEN</t>
   </si>
   <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
     <t>KI</t>
   </si>
   <si>
     <t>KIR</t>
   </si>
   <si>
+    <t>Korea (the Democratic People's Republic of)</t>
+  </si>
+  <si>
     <t>KP</t>
   </si>
   <si>
     <t>PRK</t>
   </si>
   <si>
+    <t>Korea (the Republic of)</t>
+  </si>
+  <si>
     <t>KR</t>
   </si>
   <si>
     <t>KOR</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
     <t>KW</t>
   </si>
   <si>
     <t>KWT</t>
   </si>
   <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
     <t>KG</t>
   </si>
   <si>
     <t>KGZ</t>
   </si>
   <si>
+    <t>Lao People's Democratic Republic (the)</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
     <t>LAO</t>
   </si>
   <si>
+    <t>Latvia</t>
+  </si>
+  <si>
     <t>LV</t>
   </si>
   <si>
     <t>LVA</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
     <t>LB</t>
   </si>
   <si>
     <t>LBN</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>LS</t>
   </si>
   <si>
     <t>LSO</t>
   </si>
   <si>
+    <t>Liberia</t>
+  </si>
+  <si>
     <t>LR</t>
   </si>
   <si>
     <t>LBR</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
     <t>LY</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>LI</t>
   </si>
   <si>
     <t>LIE</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
     <t>LT</t>
   </si>
   <si>
     <t>LTU</t>
   </si>
   <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>LU</t>
   </si>
   <si>
     <t>LUX</t>
   </si>
   <si>
+    <t>Macao</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
     <t>MAC</t>
   </si>
   <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
     <t>MG</t>
   </si>
   <si>
     <t>MDG</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
     <t>MWI</t>
   </si>
   <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
     <t>MY</t>
   </si>
   <si>
     <t>MYS</t>
   </si>
   <si>
+    <t>Maldives</t>
+  </si>
+  <si>
     <t>MV</t>
   </si>
   <si>
     <t>MDV</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
     <t>ML</t>
   </si>
   <si>
     <t>MLI</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
     <t>MLT</t>
   </si>
   <si>
+    <t>Marshall Islands (the)</t>
+  </si>
+  <si>
     <t>MH</t>
   </si>
   <si>
     <t>MHL</t>
   </si>
   <si>
+    <t>Martinique</t>
+  </si>
+  <si>
     <t>MQ</t>
   </si>
   <si>
     <t>MTQ</t>
   </si>
   <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
     <t>MR</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>MU</t>
   </si>
   <si>
     <t>MUS</t>
   </si>
   <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
     <t>YT</t>
   </si>
   <si>
     <t>MYT</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
     <t>MX</t>
   </si>
   <si>
     <t>MEX</t>
   </si>
   <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
     <t>FM</t>
   </si>
   <si>
     <t>FSM</t>
   </si>
   <si>
+    <t>Moldova (the Republic of)</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
     <t>MDA</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>MC</t>
   </si>
   <si>
     <t>MCO</t>
   </si>
   <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
     <t>MNG</t>
   </si>
   <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
     <t>MNE</t>
   </si>
   <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>MSR</t>
   </si>
   <si>
+    <t>Morocco</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
     <t>MZ</t>
   </si>
   <si>
     <t>MOZ</t>
   </si>
   <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>MM</t>
   </si>
   <si>
     <t>MMR</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
     <t>NAM</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
     <t>NR</t>
   </si>
   <si>
     <t>NRU</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>NP</t>
   </si>
   <si>
     <t>NPL</t>
   </si>
   <si>
+    <t>Netherlands (the)</t>
+  </si>
+  <si>
     <t>NL</t>
   </si>
   <si>
     <t>NLD</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
     <t>NCL</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>NZ</t>
   </si>
   <si>
     <t>NZL</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
     <t>NI</t>
   </si>
   <si>
     <t>NIC</t>
   </si>
   <si>
+    <t>Niger (the)</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
     <t>NER</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
     <t>NG</t>
   </si>
   <si>
     <t>NGA</t>
   </si>
   <si>
+    <t>Niue</t>
+  </si>
+  <si>
     <t>NU</t>
   </si>
   <si>
     <t>NIU</t>
   </si>
   <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
     <t>NF</t>
   </si>
   <si>
     <t>NFK</t>
   </si>
   <si>
+    <t>Northern Mariana Islands (the)</t>
+  </si>
+  <si>
     <t>MP</t>
   </si>
   <si>
     <t>MNP</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
     <t>NOR</t>
   </si>
   <si>
+    <t>Oman</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
     <t>OMN</t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
     <t>PK</t>
   </si>
   <si>
     <t>PAK</t>
   </si>
   <si>
+    <t>Palau</t>
+  </si>
+  <si>
     <t>PW</t>
   </si>
   <si>
     <t>PLW</t>
   </si>
   <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
     <t>PS</t>
   </si>
   <si>
     <t>PSE</t>
   </si>
   <si>
+    <t>Panama</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PNG</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
     <t>PY</t>
   </si>
   <si>
     <t>PRY</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
     <t>PER</t>
   </si>
   <si>
+    <t>Philippines (the)</t>
+  </si>
+  <si>
     <t>PH</t>
   </si>
   <si>
     <t>PHL</t>
   </si>
   <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
     <t>PN</t>
   </si>
   <si>
     <t>PCN</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
     <t>PL</t>
   </si>
   <si>
     <t>POL</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>PT</t>
   </si>
   <si>
     <t>PRT</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>PR</t>
   </si>
   <si>
     <t>PRI</t>
   </si>
   <si>
+    <t>Qatar</t>
+  </si>
+  <si>
     <t>QA</t>
   </si>
   <si>
     <t>QAT</t>
   </si>
   <si>
+    <t>Republic of North Macedonia</t>
+  </si>
+  <si>
     <t>MK</t>
   </si>
   <si>
     <t>MKD</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>RO</t>
   </si>
   <si>
     <t>ROU</t>
   </si>
   <si>
+    <t>Russian Federation (the)</t>
+  </si>
+  <si>
     <t>RU</t>
   </si>
   <si>
     <t>RUS</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
     <t>RW</t>
   </si>
   <si>
     <t>RWA</t>
   </si>
   <si>
+    <t>Réunion</t>
+  </si>
+  <si>
     <t>RE</t>
   </si>
   <si>
     <t>REU</t>
   </si>
   <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
     <t>BL</t>
   </si>
   <si>
     <t>BLM</t>
   </si>
   <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
     <t>SH</t>
   </si>
   <si>
     <t>SHN</t>
   </si>
   <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
     <t>KN</t>
   </si>
   <si>
     <t>KNA</t>
   </si>
   <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
     <t>LC</t>
   </si>
   <si>
     <t>LCA</t>
   </si>
   <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
     <t>MF</t>
   </si>
   <si>
     <t>MAF</t>
   </si>
   <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
     <t>PM</t>
   </si>
   <si>
     <t>SPM</t>
   </si>
   <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>VC</t>
   </si>
   <si>
     <t>VCT</t>
   </si>
   <si>
+    <t>Samoa</t>
+  </si>
+  <si>
     <t>WS</t>
   </si>
   <si>
     <t>WSM</t>
   </si>
   <si>
+    <t>San Marino</t>
+  </si>
+  <si>
     <t>SM</t>
   </si>
   <si>
     <t>SMR</t>
   </si>
   <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
     <t>ST</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
     <t>SA</t>
   </si>
   <si>
     <t>SAU</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
     <t>SN</t>
   </si>
   <si>
     <t>SEN</t>
   </si>
   <si>
+    <t>Serbia</t>
+  </si>
+  <si>
     <t>RS</t>
   </si>
   <si>
     <t>SRB</t>
   </si>
   <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
     <t>SYC</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>SL</t>
   </si>
   <si>
     <t>SLE</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
     <t>SGP</t>
   </si>
   <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
     <t>SX</t>
   </si>
   <si>
     <t>SXM</t>
   </si>
   <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
     <t>SK</t>
   </si>
   <si>
     <t>SVK</t>
   </si>
   <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
     <t>SVN</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
     <t>SB</t>
   </si>
   <si>
     <t>SLB</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
     <t>SO</t>
   </si>
   <si>
     <t>SOM</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
     <t>ZA</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
     <t>GS</t>
   </si>
   <si>
     <t>SGS</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>SS</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
     <t>ES</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
     <t>LK</t>
   </si>
   <si>
     <t>LKA</t>
   </si>
   <si>
+    <t>Sudan (the)</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
+    <t>Suriname</t>
+  </si>
+  <si>
     <t>SR</t>
   </si>
   <si>
     <t>SUR</t>
   </si>
   <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
     <t>SJ</t>
   </si>
   <si>
     <t>SJM</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
     <t>SE</t>
   </si>
   <si>
     <t>SWE</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
     <t>CHE</t>
   </si>
   <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
     <t>SY</t>
   </si>
   <si>
     <t>SYR</t>
   </si>
   <si>
+    <t>Taiwan (Province of China)</t>
+  </si>
+  <si>
     <t>TW</t>
   </si>
   <si>
     <t>TWN</t>
   </si>
   <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
     <t>TJ</t>
   </si>
   <si>
     <t>TJK</t>
   </si>
   <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
     <t>TZ</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>TH</t>
   </si>
   <si>
     <t>THA</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>TL</t>
   </si>
   <si>
     <t>TLS</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>TG</t>
   </si>
   <si>
     <t>TGO</t>
   </si>
   <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
     <t>TK</t>
   </si>
   <si>
     <t>TKL</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>TO</t>
   </si>
   <si>
     <t>TON</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
     <t>TT</t>
   </si>
   <si>
     <t>TTO</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>TR</t>
   </si>
   <si>
     <t>TUR</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
     <t>TM</t>
   </si>
   <si>
     <t>TKM</t>
   </si>
   <si>
+    <t>Turks and Caicos Islands (the)</t>
+  </si>
+  <si>
     <t>TC</t>
   </si>
   <si>
     <t>TCA</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
     <t>TV</t>
   </si>
   <si>
     <t>TUV</t>
   </si>
   <si>
+    <t>Uganda</t>
+  </si>
+  <si>
     <t>UG</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>UKR</t>
   </si>
   <si>
+    <t>United Arab Emirates (the)</t>
+  </si>
+  <si>
     <t>AE</t>
   </si>
   <si>
     <t>ARE</t>
   </si>
   <si>
+    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
+  </si>
+  <si>
     <t>GB</t>
   </si>
   <si>
     <t>GBR</t>
   </si>
   <si>
+    <t>United States Minor Outlying Islands (the)</t>
+  </si>
+  <si>
     <t>UM</t>
   </si>
   <si>
     <t>UMI</t>
   </si>
   <si>
+    <t>United States of America (the)</t>
+  </si>
+  <si>
     <t>US</t>
   </si>
   <si>
     <t>USA</t>
   </si>
   <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
     <t>UY</t>
   </si>
   <si>
     <t>URY</t>
   </si>
   <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
     <t>UZ</t>
   </si>
   <si>
     <t>UZB</t>
   </si>
   <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
     <t>VU</t>
   </si>
   <si>
     <t>VUT</t>
   </si>
   <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
     <t>VE</t>
   </si>
   <si>
     <t>VEN</t>
   </si>
   <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
     <t>VN</t>
   </si>
   <si>
     <t>VNM</t>
   </si>
   <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
     <t>VG</t>
   </si>
   <si>
     <t>VGB</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>VI</t>
   </si>
   <si>
     <t>VIR</t>
   </si>
   <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
     <t>WF</t>
   </si>
   <si>
     <t>WLF</t>
   </si>
   <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
     <t>EH</t>
   </si>
   <si>
     <t>ESH</t>
   </si>
   <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>YE</t>
   </si>
   <si>
     <t>YEM</t>
   </si>
   <si>
+    <t>Zambia</t>
+  </si>
+  <si>
     <t>ZM</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>ZW</t>
   </si>
   <si>
     <t>ZWE</t>
   </si>
   <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
     <t>AX</t>
   </si>
   <si>
@@ -1542,6 +2290,9 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -1893,3515 +2644,4280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37162349-C242-D345-9CCF-41CA2D6EDF7E}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D250"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>498</v>
+        <v>747</v>
       </c>
       <c r="B1" t="s">
-        <v>499</v>
+        <v>748</v>
       </c>
       <c r="C1" t="s">
-        <v>500</v>
+        <v>749</v>
       </c>
       <c r="D1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+      <c r="F1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>660</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>533</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>535</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D30">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D34">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D36">
         <v>854</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D37">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D38">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D42">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D43">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D44">
         <v>148</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="D45">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="D47">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D48">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="D49">
         <v>170</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="D50">
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D51">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="D52">
         <v>178</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D53">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D54">
         <v>188</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="D55">
         <v>191</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D56">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D57">
         <v>531</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="D58">
         <v>196</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D59">
         <v>203</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="D60">
         <v>384</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="D61">
         <v>208</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D62">
         <v>262</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D63">
         <v>212</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="D64">
         <v>214</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>218</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>818</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="D67">
         <v>222</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="D68">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>232</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="D70">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="D71">
         <v>748</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="D72">
         <v>231</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="D73">
         <v>238</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="D74">
         <v>234</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="D75">
         <v>242</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="D76">
         <v>246</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="D77">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="D78">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D79">
         <v>258</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="D80">
         <v>260</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D81">
         <v>266</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="D82">
         <v>270</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D83">
         <v>268</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="D84">
         <v>276</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="D85">
         <v>288</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="D86">
         <v>292</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="D87">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="D88">
         <v>304</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="D89">
         <v>308</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="D90">
         <v>312</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="D91">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="D92">
         <v>320</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="D93">
         <v>831</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="D94">
         <v>324</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D95">
         <v>624</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="D96">
         <v>328</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="D97">
         <v>332</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="D98">
         <v>334</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="D99">
         <v>336</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="D100">
         <v>340</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="D101">
         <v>344</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="D102">
         <v>348</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="D103">
         <v>352</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>308</v>
       </c>
       <c r="D104">
         <v>356</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="D105">
         <v>360</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="D106">
         <v>364</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="D107">
         <v>368</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="D108">
         <v>372</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="D109">
         <v>833</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="D110">
         <v>376</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="D111">
         <v>380</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="D112">
         <v>388</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="D113">
         <v>392</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="D114">
         <v>832</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="D115">
         <v>400</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="D116">
         <v>398</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="D117">
         <v>404</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>350</v>
       </c>
       <c r="D118">
         <v>296</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="D119">
         <v>408</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="D120">
         <v>410</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="D121">
         <v>414</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D122">
         <v>417</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="D123">
         <v>418</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>368</v>
       </c>
       <c r="D124">
         <v>428</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="D125">
         <v>422</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="D126">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
       <c r="D127">
         <v>430</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>380</v>
       </c>
       <c r="D128">
         <v>434</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="D129">
         <v>438</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>385</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>386</v>
       </c>
       <c r="D130">
         <v>440</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>389</v>
       </c>
       <c r="D131">
         <v>442</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="D132">
         <v>446</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="D133">
         <v>450</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>398</v>
       </c>
       <c r="D134">
         <v>454</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="D135">
         <v>458</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>403</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>404</v>
       </c>
       <c r="D136">
         <v>462</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>406</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>407</v>
       </c>
       <c r="D137">
         <v>466</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="D138">
         <v>470</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>412</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>412</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
       <c r="D139">
         <v>584</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>415</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>416</v>
       </c>
       <c r="D140">
         <v>474</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>419</v>
       </c>
       <c r="D141">
         <v>478</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>421</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>422</v>
       </c>
       <c r="D142">
         <v>480</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="D143">
         <v>175</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>428</v>
       </c>
       <c r="D144">
         <v>484</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>431</v>
       </c>
       <c r="D145">
         <v>583</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
       <c r="D146">
         <v>498</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>436</v>
       </c>
       <c r="C147" t="s">
-        <v>291</v>
+        <v>437</v>
       </c>
       <c r="D147">
         <v>492</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>439</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>439</v>
       </c>
       <c r="C148" t="s">
-        <v>293</v>
+        <v>440</v>
       </c>
       <c r="D148">
         <v>496</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>442</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>442</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="D149">
         <v>499</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="C150" t="s">
-        <v>297</v>
+        <v>446</v>
       </c>
       <c r="D150">
         <v>500</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="C151" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="D151">
         <v>504</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>452</v>
       </c>
       <c r="D152">
         <v>508</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>455</v>
       </c>
       <c r="D153">
         <v>104</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>458</v>
       </c>
       <c r="D154">
         <v>516</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>460</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>460</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>461</v>
       </c>
       <c r="D155">
         <v>520</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>463</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="D156">
         <v>524</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B157" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="D157">
         <v>528</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>469</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>469</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="D158">
         <v>540</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="D159">
         <v>554</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>475</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>475</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>476</v>
       </c>
       <c r="D160">
         <v>558</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>478</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>478</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="D161">
         <v>562</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="B162" t="s">
-        <v>320</v>
+        <v>481</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>482</v>
       </c>
       <c r="D162">
         <v>566</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>484</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>484</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>485</v>
       </c>
       <c r="D163">
         <v>570</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>487</v>
       </c>
       <c r="B164" t="s">
-        <v>324</v>
+        <v>487</v>
       </c>
       <c r="C164" t="s">
-        <v>325</v>
+        <v>488</v>
       </c>
       <c r="D164">
         <v>574</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>491</v>
       </c>
       <c r="D165">
         <v>580</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>494</v>
       </c>
       <c r="D166">
         <v>578</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>496</v>
       </c>
       <c r="B167" t="s">
-        <v>330</v>
+        <v>496</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>497</v>
       </c>
       <c r="D167">
         <v>512</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>499</v>
       </c>
       <c r="B168" t="s">
-        <v>332</v>
+        <v>499</v>
       </c>
       <c r="C168" t="s">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="D168">
         <v>586</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>502</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>503</v>
       </c>
       <c r="D169">
         <v>585</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>505</v>
       </c>
       <c r="B170" t="s">
-        <v>336</v>
+        <v>505</v>
       </c>
       <c r="C170" t="s">
-        <v>337</v>
+        <v>506</v>
       </c>
       <c r="D170">
         <v>275</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="B171" t="s">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="C171" t="s">
-        <v>339</v>
+        <v>509</v>
       </c>
       <c r="D171">
         <v>591</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="B172" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
       <c r="D172">
         <v>598</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="C173" t="s">
-        <v>343</v>
+        <v>515</v>
       </c>
       <c r="D173">
         <v>600</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>517</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>517</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>518</v>
       </c>
       <c r="D174">
         <v>604</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="B175" t="s">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="C175" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="D175">
         <v>608</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>523</v>
       </c>
       <c r="B176" t="s">
-        <v>348</v>
+        <v>523</v>
       </c>
       <c r="C176" t="s">
-        <v>349</v>
+        <v>524</v>
       </c>
       <c r="D176">
         <v>612</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
       <c r="C177" t="s">
-        <v>351</v>
+        <v>527</v>
       </c>
       <c r="D177">
         <v>616</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>529</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>529</v>
       </c>
       <c r="C178" t="s">
-        <v>353</v>
+        <v>530</v>
       </c>
       <c r="D178">
         <v>620</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="B179" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="D179">
         <v>630</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>535</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>535</v>
       </c>
       <c r="C180" t="s">
-        <v>357</v>
+        <v>536</v>
       </c>
       <c r="D180">
         <v>634</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="B181" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>539</v>
       </c>
       <c r="D181">
         <v>807</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>541</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>541</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>542</v>
       </c>
       <c r="D182">
         <v>642</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>544</v>
       </c>
       <c r="B183" t="s">
-        <v>362</v>
+        <v>544</v>
       </c>
       <c r="C183" t="s">
-        <v>363</v>
+        <v>545</v>
       </c>
       <c r="D183">
         <v>643</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>547</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>547</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>548</v>
       </c>
       <c r="D184">
         <v>646</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>550</v>
       </c>
       <c r="B185" t="s">
-        <v>366</v>
+        <v>550</v>
       </c>
       <c r="C185" t="s">
-        <v>367</v>
+        <v>551</v>
       </c>
       <c r="D185">
         <v>638</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>553</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>553</v>
       </c>
       <c r="C186" t="s">
-        <v>369</v>
+        <v>554</v>
       </c>
       <c r="D186">
         <v>652</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>556</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>556</v>
       </c>
       <c r="C187" t="s">
-        <v>371</v>
+        <v>557</v>
       </c>
       <c r="D187">
         <v>654</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>559</v>
       </c>
       <c r="B188" t="s">
-        <v>372</v>
+        <v>559</v>
       </c>
       <c r="C188" t="s">
-        <v>373</v>
+        <v>560</v>
       </c>
       <c r="D188">
         <v>659</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>562</v>
       </c>
       <c r="B189" t="s">
-        <v>374</v>
+        <v>562</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>563</v>
       </c>
       <c r="D189">
         <v>662</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>565</v>
       </c>
       <c r="B190" t="s">
-        <v>376</v>
+        <v>565</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>566</v>
       </c>
       <c r="D190">
         <v>663</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>568</v>
       </c>
       <c r="B191" t="s">
-        <v>378</v>
+        <v>568</v>
       </c>
       <c r="C191" t="s">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="D191">
         <v>666</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>571</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>571</v>
       </c>
       <c r="C192" t="s">
-        <v>381</v>
+        <v>572</v>
       </c>
       <c r="D192">
         <v>670</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>574</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>574</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>575</v>
       </c>
       <c r="D193">
         <v>882</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>577</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>577</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>578</v>
       </c>
       <c r="D194">
         <v>674</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>580</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>580</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>581</v>
       </c>
       <c r="D195">
         <v>678</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="B196" t="s">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="C196" t="s">
-        <v>389</v>
+        <v>584</v>
       </c>
       <c r="D196">
         <v>682</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>586</v>
       </c>
       <c r="B197" t="s">
-        <v>390</v>
+        <v>586</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>587</v>
       </c>
       <c r="D197">
         <v>686</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>589</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>589</v>
       </c>
       <c r="C198" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="D198">
         <v>688</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>592</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>592</v>
       </c>
       <c r="C199" t="s">
-        <v>395</v>
+        <v>593</v>
       </c>
       <c r="D199">
         <v>690</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>595</v>
       </c>
       <c r="B200" t="s">
-        <v>396</v>
+        <v>595</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>596</v>
       </c>
       <c r="D200">
         <v>694</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>598</v>
       </c>
       <c r="B201" t="s">
-        <v>398</v>
+        <v>598</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="D201">
         <v>702</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>601</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>601</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>602</v>
       </c>
       <c r="D202">
         <v>534</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="B203" t="s">
-        <v>402</v>
+        <v>604</v>
       </c>
       <c r="C203" t="s">
-        <v>403</v>
+        <v>605</v>
       </c>
       <c r="D203">
         <v>703</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>607</v>
       </c>
       <c r="B204" t="s">
-        <v>404</v>
+        <v>607</v>
       </c>
       <c r="C204" t="s">
-        <v>405</v>
+        <v>608</v>
       </c>
       <c r="D204">
         <v>705</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>610</v>
       </c>
       <c r="B205" t="s">
-        <v>406</v>
+        <v>610</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>611</v>
       </c>
       <c r="D205">
         <v>90</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="B206" t="s">
-        <v>408</v>
+        <v>613</v>
       </c>
       <c r="C206" t="s">
-        <v>409</v>
+        <v>614</v>
       </c>
       <c r="D206">
         <v>706</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>616</v>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>616</v>
       </c>
       <c r="C207" t="s">
-        <v>411</v>
+        <v>617</v>
       </c>
       <c r="D207">
         <v>710</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>619</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>619</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>620</v>
       </c>
       <c r="D208">
         <v>239</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="B209" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="C209" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
       <c r="D209">
         <v>728</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="B210" t="s">
-        <v>416</v>
+        <v>625</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>626</v>
       </c>
       <c r="D210">
         <v>724</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>628</v>
       </c>
       <c r="B211" t="s">
-        <v>418</v>
+        <v>628</v>
       </c>
       <c r="C211" t="s">
-        <v>419</v>
+        <v>629</v>
       </c>
       <c r="D211">
         <v>144</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>420</v>
+        <v>631</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>631</v>
       </c>
       <c r="C212" t="s">
-        <v>421</v>
+        <v>632</v>
       </c>
       <c r="D212">
         <v>729</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="B213" t="s">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="C213" t="s">
-        <v>423</v>
+        <v>635</v>
       </c>
       <c r="D213">
         <v>740</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>637</v>
       </c>
       <c r="B214" t="s">
-        <v>424</v>
+        <v>637</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>638</v>
       </c>
       <c r="D214">
         <v>744</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>640</v>
       </c>
       <c r="B215" t="s">
-        <v>426</v>
+        <v>640</v>
       </c>
       <c r="C215" t="s">
-        <v>427</v>
+        <v>641</v>
       </c>
       <c r="D215">
         <v>752</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>643</v>
       </c>
       <c r="B216" t="s">
-        <v>428</v>
+        <v>643</v>
       </c>
       <c r="C216" t="s">
-        <v>429</v>
+        <v>644</v>
       </c>
       <c r="D216">
         <v>756</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>646</v>
       </c>
       <c r="B217" t="s">
-        <v>430</v>
+        <v>646</v>
       </c>
       <c r="C217" t="s">
-        <v>431</v>
+        <v>647</v>
       </c>
       <c r="D217">
         <v>760</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>649</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>649</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="D218">
         <v>158</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>652</v>
       </c>
       <c r="B219" t="s">
-        <v>434</v>
+        <v>652</v>
       </c>
       <c r="C219" t="s">
-        <v>435</v>
+        <v>653</v>
       </c>
       <c r="D219">
         <v>762</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>655</v>
       </c>
       <c r="B220" t="s">
-        <v>436</v>
+        <v>655</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>656</v>
       </c>
       <c r="D220">
         <v>834</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>658</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>658</v>
       </c>
       <c r="C221" t="s">
-        <v>439</v>
+        <v>659</v>
       </c>
       <c r="D221">
         <v>764</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>661</v>
       </c>
       <c r="B222" t="s">
-        <v>440</v>
+        <v>661</v>
       </c>
       <c r="C222" t="s">
-        <v>441</v>
+        <v>662</v>
       </c>
       <c r="D222">
         <v>626</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>664</v>
       </c>
       <c r="B223" t="s">
-        <v>442</v>
+        <v>664</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>665</v>
       </c>
       <c r="D223">
         <v>768</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="C224" t="s">
-        <v>445</v>
+        <v>668</v>
       </c>
       <c r="D224">
         <v>772</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>670</v>
       </c>
       <c r="B225" t="s">
-        <v>446</v>
+        <v>670</v>
       </c>
       <c r="C225" t="s">
-        <v>447</v>
+        <v>671</v>
       </c>
       <c r="D225">
         <v>776</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="B226" t="s">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="C226" t="s">
-        <v>449</v>
+        <v>674</v>
       </c>
       <c r="D226">
         <v>780</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="B227" t="s">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="C227" t="s">
-        <v>451</v>
+        <v>677</v>
       </c>
       <c r="D227">
         <v>788</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
       <c r="B228" t="s">
-        <v>452</v>
+        <v>679</v>
       </c>
       <c r="C228" t="s">
-        <v>453</v>
+        <v>680</v>
       </c>
       <c r="D228">
         <v>792</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="B229" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="C229" t="s">
-        <v>455</v>
+        <v>683</v>
       </c>
       <c r="D229">
         <v>795</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>456</v>
+        <v>685</v>
       </c>
       <c r="B230" t="s">
-        <v>456</v>
+        <v>685</v>
       </c>
       <c r="C230" t="s">
-        <v>457</v>
+        <v>686</v>
       </c>
       <c r="D230">
         <v>796</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>688</v>
       </c>
       <c r="B231" t="s">
-        <v>458</v>
+        <v>688</v>
       </c>
       <c r="C231" t="s">
-        <v>459</v>
+        <v>689</v>
       </c>
       <c r="D231">
         <v>798</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>691</v>
       </c>
       <c r="B232" t="s">
-        <v>460</v>
+        <v>691</v>
       </c>
       <c r="C232" t="s">
-        <v>461</v>
+        <v>692</v>
       </c>
       <c r="D232">
         <v>800</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>694</v>
       </c>
       <c r="B233" t="s">
-        <v>462</v>
+        <v>694</v>
       </c>
       <c r="C233" t="s">
-        <v>463</v>
+        <v>695</v>
       </c>
       <c r="D233">
         <v>804</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>697</v>
       </c>
       <c r="B234" t="s">
-        <v>464</v>
+        <v>697</v>
       </c>
       <c r="C234" t="s">
-        <v>465</v>
+        <v>698</v>
       </c>
       <c r="D234">
         <v>784</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>700</v>
       </c>
       <c r="B235" t="s">
-        <v>466</v>
+        <v>700</v>
       </c>
       <c r="C235" t="s">
-        <v>467</v>
+        <v>701</v>
       </c>
       <c r="D235">
         <v>826</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>703</v>
       </c>
       <c r="B236" t="s">
-        <v>468</v>
+        <v>703</v>
       </c>
       <c r="C236" t="s">
-        <v>469</v>
+        <v>704</v>
       </c>
       <c r="D236">
         <v>581</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>706</v>
       </c>
       <c r="B237" t="s">
-        <v>470</v>
+        <v>706</v>
       </c>
       <c r="C237" t="s">
-        <v>471</v>
+        <v>707</v>
       </c>
       <c r="D237">
         <v>840</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>472</v>
+        <v>709</v>
       </c>
       <c r="B238" t="s">
-        <v>472</v>
+        <v>709</v>
       </c>
       <c r="C238" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="D238">
         <v>858</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>474</v>
+        <v>712</v>
       </c>
       <c r="B239" t="s">
-        <v>474</v>
+        <v>712</v>
       </c>
       <c r="C239" t="s">
-        <v>475</v>
+        <v>713</v>
       </c>
       <c r="D239">
         <v>860</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>715</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>715</v>
       </c>
       <c r="C240" t="s">
-        <v>477</v>
+        <v>716</v>
       </c>
       <c r="D240">
         <v>548</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>718</v>
       </c>
       <c r="B241" t="s">
-        <v>478</v>
+        <v>718</v>
       </c>
       <c r="C241" t="s">
-        <v>479</v>
+        <v>719</v>
       </c>
       <c r="D241">
         <v>862</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>721</v>
       </c>
       <c r="C242" t="s">
-        <v>481</v>
+        <v>722</v>
       </c>
       <c r="D242">
         <v>704</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>724</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>724</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>725</v>
       </c>
       <c r="D243">
         <v>92</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>727</v>
       </c>
       <c r="B244" t="s">
-        <v>484</v>
+        <v>727</v>
       </c>
       <c r="C244" t="s">
-        <v>485</v>
+        <v>728</v>
       </c>
       <c r="D244">
         <v>850</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>730</v>
       </c>
       <c r="B245" t="s">
-        <v>486</v>
+        <v>730</v>
       </c>
       <c r="C245" t="s">
-        <v>487</v>
+        <v>731</v>
       </c>
       <c r="D245">
         <v>876</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>733</v>
       </c>
       <c r="B246" t="s">
-        <v>488</v>
+        <v>733</v>
       </c>
       <c r="C246" t="s">
-        <v>489</v>
+        <v>734</v>
       </c>
       <c r="D246">
         <v>732</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>736</v>
       </c>
       <c r="B247" t="s">
-        <v>490</v>
+        <v>736</v>
       </c>
       <c r="C247" t="s">
-        <v>491</v>
+        <v>737</v>
       </c>
       <c r="D247">
         <v>887</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>492</v>
+        <v>739</v>
       </c>
       <c r="B248" t="s">
-        <v>492</v>
+        <v>739</v>
       </c>
       <c r="C248" t="s">
-        <v>493</v>
+        <v>740</v>
       </c>
       <c r="D248">
         <v>894</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>494</v>
+        <v>742</v>
       </c>
       <c r="B249" t="s">
-        <v>494</v>
+        <v>742</v>
       </c>
       <c r="C249" t="s">
-        <v>495</v>
+        <v>743</v>
       </c>
       <c r="D249">
         <v>716</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>745</v>
       </c>
       <c r="B250" t="s">
-        <v>496</v>
+        <v>745</v>
       </c>
       <c r="C250" t="s">
-        <v>497</v>
+        <v>746</v>
       </c>
       <c r="D250">
         <v>248</v>
+      </c>
+      <c r="F250" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66490044-87E1-874B-B324-3C8AC64A5259}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>